--- a/CommonFiles/COPsyncPresence.xlsx
+++ b/CommonFiles/COPsyncPresence.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -39,9 +37,6 @@
     <t>COPsync911</t>
   </si>
   <si>
-    <t>Warrantsync</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -1558,6 +1553,9 @@
   </si>
   <si>
     <t>TX_Throckmorton</t>
+  </si>
+  <si>
+    <t>WARRANTsync</t>
   </si>
 </sst>
 </file>
@@ -1939,20 +1937,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" hidden="1" customWidth="1"/>
     <col min="3" max="5" width="25.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1964,112 +1962,112 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>7</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2077,1806 +2075,1806 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B114" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B115" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B153" t="s">
         <v>2</v>
@@ -3884,527 +3882,527 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B171" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B172" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B173" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B174" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B175" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B176" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B177" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B179" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B180" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B181" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B182" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B183" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B185" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B186" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B187" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B188" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B189" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B190" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B191" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B192" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B193" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B194" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B195" t="s">
         <v>4</v>
@@ -4412,789 +4410,765 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B196" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B197" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B198" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B201" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B202" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B203" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B206" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B207" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B208" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B209" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B210" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B211" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B212" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B217" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B218" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B219" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B220" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B221" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B222" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B223" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B224" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B225" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B226" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B227" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B228" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B229" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B230" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B231" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B232" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B233" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B234" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B235" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B236" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B237" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B239" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B240" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B241" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B242" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B243" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B244" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B245" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B246" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B247" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B248" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B249" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B250" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B251" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B252" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B253" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B254" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B255" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CommonFiles/COPsyncPresence.xlsx
+++ b/CommonFiles/COPsyncPresence.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="513">
   <si>
     <t>ElementId</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>COPsync911</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1938,7 +1935,7 @@
   <dimension ref="A1:E255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,7 +1947,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1962,112 +1959,76 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2075,3096 +2036,1962 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>278</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>280</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>281</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>282</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>284</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>285</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>286</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>287</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>289</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>290</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>291</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>292</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>293</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>294</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>295</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>44</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>45</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>297</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>298</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>299</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>301</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
         <v>302</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" t="s">
-        <v>509</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>303</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>305</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>306</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>307</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>308</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>58</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>310</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>60</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>311</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>61</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>312</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>313</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>63</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>64</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>315</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>65</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
         <v>316</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" t="s">
-        <v>318</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
         <v>320</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" t="s">
-        <v>317</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>70</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>321</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>71</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>322</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>72</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>323</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>73</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>74</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>325</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>75</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>326</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>76</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>327</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>77</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>328</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>78</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>329</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>79</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>330</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>80</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>331</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>81</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>332</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>82</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>333</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>83</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>334</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>84</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>335</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>85</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>86</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>337</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>87</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>338</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>88</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>339</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>89</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>340</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>90</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>91</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>342</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>92</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>343</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>93</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>344</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>94</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>345</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>95</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>96</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>347</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>97</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>348</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>98</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>349</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>99</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>350</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>100</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>101</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>352</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>102</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>353</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>103</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>354</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>104</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>355</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>105</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>356</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>106</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>357</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>107</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>358</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>108</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>359</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>109</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>360</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>110</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>111</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>362</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>112</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>363</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>113</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>364</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>114</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>365</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>115</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>366</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>116</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>367</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>117</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>368</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>118</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>369</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>119</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>370</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>120</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>371</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>121</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>372</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>122</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>123</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>374</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>124</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>375</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>125</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>376</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>126</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>377</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>127</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>128</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>379</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>129</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>380</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>130</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>381</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>131</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>382</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>132</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>133</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>384</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>134</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>385</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>135</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>386</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>136</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>387</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>137</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>138</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>389</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>139</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>390</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>140</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>391</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>141</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>392</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>142</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>393</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>143</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>394</v>
       </c>
-      <c r="E137" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>144</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>395</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>145</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>396</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>146</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>397</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>147</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>148</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>399</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>149</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>400</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>150</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>401</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>151</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>402</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>152</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>403</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>153</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>404</v>
       </c>
-      <c r="E147" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>154</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>405</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>155</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>406</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>156</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>407</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>157</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>408</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>158</v>
-      </c>
-      <c r="B152" t="s">
-        <v>409</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>159</v>
       </c>
       <c r="B153" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>160</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>410</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>161</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>411</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>162</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>412</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>163</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>413</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>164</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>165</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>415</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>166</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>416</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>167</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>417</v>
       </c>
-      <c r="D161" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>168</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>418</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>169</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>170</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>420</v>
       </c>
-      <c r="D164" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>171</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>421</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>172</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>422</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>173</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>423</v>
       </c>
-      <c r="E167" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>174</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>175</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>425</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>176</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>426</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>177</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B172" t="s">
         <v>427</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>178</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>428</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>179</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>429</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>180</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>430</v>
       </c>
-      <c r="E174" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>181</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>431</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>182</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>432</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>183</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>433</v>
       </c>
-      <c r="E177" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>184</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>185</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>435</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>186</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>436</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>187</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>437</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>188</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>438</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>189</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>439</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>190</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>440</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>191</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>441</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>192</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>442</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>193</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>443</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>194</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>444</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>195</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B190" t="s">
         <v>445</v>
       </c>
-      <c r="E189" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>196</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B191" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>197</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>447</v>
       </c>
-      <c r="D191" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>198</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>448</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>199</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>449</v>
       </c>
-      <c r="D193" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>200</v>
-      </c>
-      <c r="B194" t="s">
-        <v>450</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>201</v>
       </c>
       <c r="B195" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>202</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>451</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>203</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>452</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>204</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>453</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>205</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>454</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>206</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>207</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>456</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>208</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>457</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>209</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205" t="s">
         <v>458</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>210</v>
-      </c>
-      <c r="B204" t="s">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>211</v>
+      </c>
+      <c r="B206" t="s">
         <v>510</v>
       </c>
-      <c r="E204" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>211</v>
-      </c>
-      <c r="B205" t="s">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>212</v>
+      </c>
+      <c r="B207" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>212</v>
-      </c>
-      <c r="B206" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>213</v>
+      </c>
+      <c r="B208" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>219</v>
+      </c>
+      <c r="B214" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>221</v>
+      </c>
+      <c r="B216" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>222</v>
+      </c>
+      <c r="B217" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>223</v>
+      </c>
+      <c r="B218" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>224</v>
+      </c>
+      <c r="B219" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>225</v>
+      </c>
+      <c r="B220" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>226</v>
+      </c>
+      <c r="B221" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>227</v>
+      </c>
+      <c r="B222" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>228</v>
+      </c>
+      <c r="B223" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>229</v>
+      </c>
+      <c r="B224" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>230</v>
+      </c>
+      <c r="B225" t="s">
         <v>511</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>213</v>
-      </c>
-      <c r="B207" t="s">
-        <v>460</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>214</v>
-      </c>
-      <c r="B208" t="s">
-        <v>461</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>215</v>
-      </c>
-      <c r="B209" t="s">
-        <v>462</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>216</v>
-      </c>
-      <c r="B210" t="s">
-        <v>463</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>217</v>
-      </c>
-      <c r="B211" t="s">
-        <v>464</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>218</v>
-      </c>
-      <c r="B212" t="s">
-        <v>465</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>219</v>
-      </c>
-      <c r="B213" t="s">
-        <v>466</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>220</v>
-      </c>
-      <c r="B214" t="s">
-        <v>467</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>221</v>
-      </c>
-      <c r="B215" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>222</v>
-      </c>
-      <c r="B216" t="s">
-        <v>469</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>223</v>
-      </c>
-      <c r="B217" t="s">
-        <v>470</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>224</v>
-      </c>
-      <c r="B218" t="s">
-        <v>471</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>225</v>
-      </c>
-      <c r="B219" t="s">
-        <v>472</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>226</v>
-      </c>
-      <c r="B220" t="s">
-        <v>473</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>227</v>
-      </c>
-      <c r="B221" t="s">
-        <v>474</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>228</v>
-      </c>
-      <c r="B222" t="s">
-        <v>475</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>229</v>
-      </c>
-      <c r="B223" t="s">
-        <v>476</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>230</v>
-      </c>
-      <c r="B224" t="s">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>231</v>
+      </c>
+      <c r="B226" t="s">
         <v>477</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>231</v>
-      </c>
-      <c r="B225" t="s">
-        <v>512</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>232</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B227" t="s">
         <v>478</v>
       </c>
-      <c r="E226" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>233</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B228" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>234</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" t="s">
         <v>480</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>235</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B230" t="s">
         <v>481</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>236</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
         <v>482</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>237</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>483</v>
       </c>
-      <c r="E231" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>238</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B233" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>239</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B234" t="s">
         <v>485</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>240</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B235" t="s">
         <v>486</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>241</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" t="s">
         <v>487</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>242</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B237" t="s">
         <v>488</v>
       </c>
-      <c r="E236" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>243</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>244</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>490</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>245</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B240" t="s">
         <v>491</v>
       </c>
-      <c r="C239" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>246</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B241" t="s">
         <v>492</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>247</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B242" t="s">
         <v>493</v>
       </c>
-      <c r="E241" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>248</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B243" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>249</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>495</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>250</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>496</v>
       </c>
-      <c r="C244" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>251</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B246" t="s">
         <v>497</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>252</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
         <v>498</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>253</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B248" t="s">
         <v>499</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>254</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B249" t="s">
         <v>500</v>
       </c>
-      <c r="E248" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>255</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B250" t="s">
         <v>501</v>
       </c>
-      <c r="C249" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>256</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B251" t="s">
         <v>502</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>257</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" t="s">
         <v>503</v>
       </c>
-      <c r="E251" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>258</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>259</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B254" t="s">
         <v>505</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>260</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B255" t="s">
         <v>506</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>261</v>
-      </c>
-      <c r="B255" t="s">
-        <v>507</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/CommonFiles/COPsyncPresence.xlsx
+++ b/CommonFiles/COPsyncPresence.xlsx
@@ -1935,7 +1935,10 @@
   <dimension ref="A1:E255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
